--- a/Data/qPCR_primer_effis_extended.xlsx
+++ b/Data/qPCR_primer_effis_extended.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinvarholick/Documents/GitHub/AcomysDominance_2022_Data_Results/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8D973-5453-E34E-8B47-B26977760679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178B110-C759-5F41-8289-7E59C9AFA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="9120" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actin B" sheetId="1" r:id="rId1"/>
@@ -2066,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2254,8 +2254,8 @@
         <v>10</v>
       </c>
       <c r="G11" s="4">
-        <f>SLOPE(E3:E7, G3:G7)</f>
-        <v>-2.9196563129287214</v>
+        <f>SLOPE(E3:E6, G3:G6)</f>
+        <v>-3.2230375176945869</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -2264,8 +2264,8 @@
         <v>11</v>
       </c>
       <c r="G12" s="18">
-        <f>RSQ(E3:E7,G3:G7)</f>
-        <v>0.96731059027404753</v>
+        <f>RSQ(E3:E6,G3:G6)</f>
+        <v>0.9636301509060099</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="G13" s="20">
         <f>(10^(-1/G11)-1)*100</f>
-        <v>120.04224475765656</v>
+        <v>104.29903871257827</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3370,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFADDF0-7F31-884F-956A-DFD7195ECA5B}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
